--- a/RMI_researchers.xlsx
+++ b/RMI_researchers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Samsung_T5/CloudStation/work/ChatBot/Dialogflow/receptionbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChaBot/Receptionbot_Danbee/receptionbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F389F0E3-CE66-9746-8191-7C5B98F2C67E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E0FEFE19-22ED-0A42-B703-9FABABA5C74C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="11360" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
+    <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,74 @@
   </si>
   <si>
     <t>anarashad94@kist.re.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jschoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yslim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuh.junku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lkr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dahyun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyungha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoyung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feelgood88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anarashad94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choitm0707</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최예진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yjchoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최예원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ywchoi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,19 +600,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +628,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -577,8 +648,11 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -594,8 +668,11 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -611,8 +688,11 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -628,8 +708,11 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -645,8 +728,11 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -662,8 +748,11 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -679,8 +768,11 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -696,8 +788,11 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -713,8 +808,11 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -730,8 +828,11 @@
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -747,8 +848,11 @@
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -763,6 +867,25 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/RMI_researchers.xlsx
+++ b/RMI_researchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschoi/work/ChaBot/Receptionbot_Danbee/receptionbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E0FEFE19-22ED-0A42-B703-9FABABA5C74C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4C8C2D0-9806-2348-AC8A-66264B83E841}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="4680" windowWidth="28300" windowHeight="17440" xr2:uid="{BE90FEEF-0071-3141-BA08-DDBFE6223CDC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>ywchoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조수연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sycho</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F99B4F9-49F5-F348-8D5C-56FACE6FD4B9}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -886,6 +894,14 @@
       </c>
       <c r="F15" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
